--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200427.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200427.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431A7F43-475B-4CBF-A50B-05E09BDAF07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC6F2C-51CD-4166-8057-6874D200B51F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10854,9 +10854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF3" sqref="AF3:AF91"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N2:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" customHeight="1"/>
@@ -11069,9 +11069,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="15"/>
-      <c r="N2" s="19">
-        <v>1</v>
-      </c>
+      <c r="N2" s="19"/>
       <c r="O2" s="26"/>
       <c r="P2" s="19">
         <v>355</v>
@@ -11157,9 +11155,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="19">
-        <v>1</v>
-      </c>
+      <c r="N3" s="19"/>
       <c r="O3" s="27"/>
       <c r="P3" s="19">
         <v>35</v>
@@ -11653,9 +11649,7 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="19">
-        <v>1</v>
-      </c>
+      <c r="N9" s="19"/>
       <c r="O9" s="27"/>
       <c r="P9" s="19">
         <v>10</v>
